--- a/WpfTennis/WpfTennis/bin/Debug/Les Lillas/FichierAdministrationLes Lillas.xlsx
+++ b/WpfTennis/WpfTennis/bin/Debug/Les Lillas/FichierAdministrationLes Lillas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sacha\Documents\Informatique\Informatique C#\Esilv_année_2019\Wpf_Tennis\WpfTennis\WpfTennis\bin\Debug\Les Lillas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sacha\Documents\Informatique\GitHub\Wpf_Projet_Tennis_Final\WpfTennis\WpfTennis\bin\Debug\Les Lillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E90D9F67-D74B-4D2C-ADF5-A38F55D6D255}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE92F6E3-4A70-4739-BF94-398B13B9BD0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1464" yWindow="0" windowWidth="17280" windowHeight="7692" xr2:uid="{EBC8A776-919C-4A83-AA6F-C896E080C6C2}"/>
+    <workbookView xWindow="5280" yWindow="2232" windowWidth="16872" windowHeight="9060" xr2:uid="{EBC8A776-919C-4A83-AA6F-C896E080C6C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>

--- a/WpfTennis/WpfTennis/bin/Debug/Les Lillas/FichierAdministrationLes Lillas.xlsx
+++ b/WpfTennis/WpfTennis/bin/Debug/Les Lillas/FichierAdministrationLes Lillas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sacha\Documents\Informatique\GitHub\Wpf_Projet_Tennis_Final\WpfTennis\WpfTennis\bin\Debug\Les Lillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE92F6E3-4A70-4739-BF94-398B13B9BD0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B098379D-7B01-48CE-8977-E554EB2FF05D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5280" yWindow="2232" windowWidth="16872" windowHeight="9060" xr2:uid="{EBC8A776-919C-4A83-AA6F-C896E080C6C2}"/>
   </bookViews>

--- a/WpfTennis/WpfTennis/bin/Debug/Les Lillas/FichierAdministrationLes Lillas.xlsx
+++ b/WpfTennis/WpfTennis/bin/Debug/Les Lillas/FichierAdministrationLes Lillas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sacha\Documents\Informatique\GitHub\Wpf_Projet_Tennis_Final\WpfTennis\WpfTennis\bin\Debug\Les Lillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B098379D-7B01-48CE-8977-E554EB2FF05D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{165D782C-DEE9-4702-AD6B-2378AC5D5B97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5280" yWindow="2232" windowWidth="16872" windowHeight="9060" xr2:uid="{EBC8A776-919C-4A83-AA6F-C896E080C6C2}"/>
   </bookViews>
@@ -45,25 +45,25 @@
     <t>Tatoon</t>
   </si>
   <si>
-    <t>Villa du desert</t>
-  </si>
-  <si>
     <t>FR76</t>
   </si>
   <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
     <t>Fr76</t>
   </si>
   <si>
-    <t>SDF</t>
-  </si>
-  <si>
-    <t>sdf</t>
+    <t>Luc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anakin </t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>etoile de la mort</t>
+  </si>
+  <si>
+    <t>Ville du desert</t>
   </si>
 </sst>
 </file>
@@ -419,12 +419,13 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="14.21875" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -443,7 +444,7 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
         <v>3</v>
@@ -461,24 +462,24 @@
         <v>2999</v>
       </c>
       <c r="J2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F3" s="1">
         <v>36145</v>
@@ -493,24 +494,24 @@
         <v>2000</v>
       </c>
       <c r="J3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F4" s="1">
         <v>36145</v>
@@ -525,7 +526,7 @@
         <v>2010.5</v>
       </c>
       <c r="J4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
